--- a/posesiones/1477508.xlsx
+++ b/posesiones/1477508.xlsx
@@ -1886,10 +1886,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2080,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>15</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>13</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2380,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>22</v>
@@ -2433,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>16</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>11</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R20">
         <v>15</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R22">
         <v>4</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24">
         <v>15</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3030,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R26">
         <v>17</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R28">
         <v>6</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3233,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R30">
         <v>13</v>
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R31">
         <v>16</v>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3389,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R33">
         <v>9</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R36">
         <v>23</v>
@@ -3592,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R37">
         <v>10</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3692,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R39">
         <v>27</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4036,7 +4036,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R46">
         <v>10</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4183,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R50">
         <v>18</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4383,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R53">
         <v>27</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4483,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R55">
         <v>14</v>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4583,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R57">
         <v>21</v>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4683,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R59">
         <v>19</v>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4783,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R61">
         <v>17</v>
@@ -4836,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R63">
         <v>8</v>
@@ -4939,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R64">
         <v>26</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5042,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R66">
         <v>20</v>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5145,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R68">
         <v>13</v>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5245,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R70">
         <v>12</v>
@@ -5298,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R71">
         <v>28</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5683,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R79">
         <v>18</v>
@@ -5736,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5830,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5880,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R83">
         <v>18</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5980,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R85">
         <v>19</v>
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6077,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6124,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6171,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6265,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6315,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R92">
         <v>18</v>
@@ -6368,7 +6368,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R93">
         <v>17</v>
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6471,7 +6471,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R95">
         <v>8</v>
@@ -6521,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6571,7 +6571,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R97">
         <v>5</v>
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6671,7 +6671,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R99">
         <v>23</v>
@@ -6721,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6771,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R101">
         <v>5</v>
@@ -6821,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6874,7 +6874,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R103">
         <v>4</v>
@@ -6918,10 +6918,10 @@
         <v>1</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6962,10 +6962,10 @@
         <v>1</v>
       </c>
       <c r="P105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7015,7 +7015,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R106">
         <v>17</v>
@@ -7068,7 +7068,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R107">
         <v>20</v>
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R108">
         <v>24</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7218,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7415,7 +7415,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R114">
         <v>36</v>
@@ -7468,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R115">
         <v>10</v>
@@ -7518,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7565,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7612,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7800,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7850,7 +7850,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R123">
         <v>20</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8044,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R127">
         <v>26</v>
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8147,7 +8147,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R129">
         <v>22</v>
@@ -8200,7 +8200,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R130">
         <v>20</v>
@@ -8253,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8303,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R132">
         <v>7</v>
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8397,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R135">
         <v>11</v>
@@ -8500,7 +8500,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8550,7 +8550,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R137">
         <v>15</v>
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8650,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R139">
         <v>25</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8753,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R141">
         <v>8</v>
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8850,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8897,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8994,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R146">
         <v>0</v>
@@ -9044,7 +9044,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9141,7 +9141,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R149">
         <v>19</v>
@@ -9194,7 +9194,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R150">
         <v>14</v>
@@ -9247,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9294,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9341,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9391,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R154">
         <v>24</v>
@@ -9444,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9494,7 +9494,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R156">
         <v>0</v>
@@ -9544,7 +9544,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9594,7 +9594,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R158">
         <v>6</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9694,7 +9694,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R160">
         <v>15</v>
@@ -9744,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9788,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9838,7 +9838,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R163">
         <v>21</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9938,7 +9938,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9985,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10079,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10173,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10220,7 +10220,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10314,7 +10314,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10411,7 +10411,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R175">
         <v>10</v>
@@ -10464,7 +10464,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10511,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10558,7 +10558,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10652,7 +10652,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10749,7 +10749,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R182">
         <v>18</v>
@@ -10802,7 +10802,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R183">
         <v>15</v>
@@ -10855,7 +10855,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R184">
         <v>18</v>
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10955,7 +10955,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R186">
         <v>18</v>
@@ -11008,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11058,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R188">
         <v>10</v>
@@ -11108,7 +11108,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11152,7 +11152,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11202,7 +11202,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R191">
         <v>13</v>
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11305,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R193">
         <v>12</v>
@@ -11355,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11405,7 +11405,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11455,7 +11455,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R196">
         <v>30</v>
@@ -11505,7 +11505,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11555,7 +11555,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11602,7 +11602,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11649,7 +11649,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11696,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11746,7 +11746,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11796,7 +11796,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R203">
         <v>22</v>
@@ -11846,7 +11846,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11896,7 +11896,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R205">
         <v>11</v>
@@ -11946,7 +11946,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11996,7 +11996,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R207">
         <v>6</v>
@@ -12046,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12096,7 +12096,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R209">
         <v>25</v>
@@ -12149,7 +12149,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12196,7 +12196,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12246,7 +12246,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12293,7 +12293,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12387,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12434,7 +12434,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12481,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12528,7 +12528,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12578,7 +12578,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R219">
         <v>13</v>
@@ -12631,7 +12631,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12681,7 +12681,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R221">
         <v>18</v>
@@ -12725,10 +12725,10 @@
         <v>1</v>
       </c>
       <c r="P222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q222">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12775,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12822,7 +12822,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12863,10 +12863,10 @@
         <v>1</v>
       </c>
       <c r="P225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q225">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12916,7 +12916,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R226">
         <v>11</v>
@@ -12966,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13016,7 +13016,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R228">
         <v>20</v>
@@ -13069,7 +13069,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R229">
         <v>13</v>
@@ -13119,7 +13119,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13169,7 +13169,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R231">
         <v>14</v>
@@ -13219,7 +13219,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13269,7 +13269,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R233">
         <v>17</v>
@@ -13319,7 +13319,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13366,7 +13366,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13416,7 +13416,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13513,7 +13513,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13563,7 +13563,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R239">
         <v>31</v>
@@ -13613,7 +13613,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13660,7 +13660,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13710,7 +13710,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R242">
         <v>2</v>
@@ -13763,7 +13763,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R243">
         <v>10</v>
@@ -13816,7 +13816,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13866,7 +13866,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R245">
         <v>10</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13966,7 +13966,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R247">
         <v>13</v>
@@ -14016,7 +14016,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14063,7 +14063,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14113,7 +14113,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14163,7 +14163,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R251">
         <v>31</v>
@@ -14216,7 +14216,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14266,7 +14266,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R253">
         <v>12</v>
@@ -14319,7 +14319,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14369,7 +14369,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R255">
         <v>13</v>
@@ -14419,7 +14419,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14469,7 +14469,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R257">
         <v>6</v>
@@ -14522,7 +14522,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14572,7 +14572,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R259">
         <v>17</v>
@@ -14622,7 +14622,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14669,7 +14669,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14719,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14769,7 +14769,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R263">
         <v>21</v>
@@ -14819,7 +14819,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14866,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14913,7 +14913,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14960,7 +14960,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15010,7 +15010,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R268">
         <v>0</v>
@@ -15063,7 +15063,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R269">
         <v>12</v>
@@ -15113,7 +15113,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15163,7 +15163,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R271">
         <v>20</v>
@@ -15213,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15260,7 +15260,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15310,7 +15310,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R274">
         <v>24</v>
@@ -15360,7 +15360,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15407,7 +15407,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15454,7 +15454,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15504,7 +15504,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R278">
         <v>24</v>
@@ -15554,7 +15554,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15601,7 +15601,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15648,7 +15648,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15695,7 +15695,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15742,7 +15742,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15789,7 +15789,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15839,7 +15839,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R285">
         <v>21</v>
@@ -15889,7 +15889,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15939,7 +15939,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R287">
         <v>22</v>
@@ -15989,7 +15989,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16039,7 +16039,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R289">
         <v>17</v>
@@ -16089,7 +16089,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16136,7 +16136,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16183,7 +16183,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16233,7 +16233,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R293">
         <v>16</v>
@@ -16286,7 +16286,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16336,7 +16336,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R295">
         <v>8</v>
@@ -16386,7 +16386,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16436,7 +16436,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R297">
         <v>11</v>
@@ -16486,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16530,7 +16530,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16577,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16624,7 +16624,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16671,7 +16671,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16718,7 +16718,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16812,7 +16812,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16862,7 +16862,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R306">
         <v>30</v>
@@ -16915,7 +16915,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16965,7 +16965,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R308">
         <v>16</v>
@@ -17015,7 +17015,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17062,7 +17062,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17112,7 +17112,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R311">
         <v>15</v>
@@ -17165,7 +17165,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17215,7 +17215,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R313">
         <v>15</v>
@@ -17265,7 +17265,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17315,7 +17315,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R315">
         <v>16</v>
@@ -17368,7 +17368,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17415,7 +17415,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17462,7 +17462,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17509,7 +17509,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17606,7 +17606,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R321">
         <v>13</v>
@@ -17656,7 +17656,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17703,7 +17703,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17753,7 +17753,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R324">
         <v>20</v>
@@ -17803,7 +17803,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17853,7 +17853,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R326">
         <v>5</v>
@@ -17903,7 +17903,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17950,7 +17950,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17997,7 +17997,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18047,7 +18047,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R330">
         <v>22</v>
@@ -18097,7 +18097,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18147,7 +18147,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R332">
         <v>29</v>
@@ -18197,7 +18197,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18238,10 +18238,10 @@
         <v>1</v>
       </c>
       <c r="P334" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q334">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18282,10 +18282,10 @@
         <v>1</v>
       </c>
       <c r="P335" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q335">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18335,7 +18335,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R336">
         <v>13</v>
@@ -18385,7 +18385,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18435,7 +18435,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R338">
         <v>20</v>
@@ -18485,7 +18485,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18535,7 +18535,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R340">
         <v>15</v>
@@ -18588,7 +18588,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R341">
         <v>28</v>
@@ -18641,7 +18641,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18691,7 +18691,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R343">
         <v>15</v>
@@ -18744,7 +18744,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18791,7 +18791,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18838,7 +18838,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18885,7 +18885,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18932,7 +18932,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18979,7 +18979,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19029,7 +19029,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R350">
         <v>25</v>
@@ -19079,7 +19079,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19126,7 +19126,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19220,7 +19220,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19267,7 +19267,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19314,7 +19314,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19364,7 +19364,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R357">
         <v>27</v>
@@ -19417,7 +19417,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19467,7 +19467,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R359">
         <v>9</v>
@@ -19514,7 +19514,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19564,7 +19564,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R361">
         <v>18</v>
@@ -19614,7 +19614,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19661,7 +19661,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19708,7 +19708,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19755,7 +19755,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19802,7 +19802,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19849,7 +19849,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19899,7 +19899,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R368">
         <v>14</v>
@@ -19952,7 +19952,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R369">
         <v>19</v>
@@ -20005,7 +20005,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20055,7 +20055,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R371">
         <v>25</v>
@@ -20108,7 +20108,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20158,7 +20158,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R373">
         <v>9</v>
@@ -20208,7 +20208,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20255,7 +20255,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20302,7 +20302,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20352,7 +20352,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R377">
         <v>34</v>
@@ -20402,7 +20402,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20449,7 +20449,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20496,7 +20496,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20546,7 +20546,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R381">
         <v>25</v>
@@ -20599,7 +20599,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20646,7 +20646,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20693,7 +20693,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20740,7 +20740,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20787,7 +20787,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20837,7 +20837,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R387">
         <v>15</v>
@@ -20887,7 +20887,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20934,7 +20934,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20984,7 +20984,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R390">
         <v>19</v>
@@ -21037,7 +21037,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21087,7 +21087,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R392">
         <v>20</v>
@@ -21140,7 +21140,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R394">
         <v>6</v>
@@ -21240,7 +21240,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21287,7 +21287,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21337,7 +21337,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R397">
         <v>4</v>
@@ -21390,7 +21390,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R398">
         <v>12</v>
@@ -21443,7 +21443,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21493,7 +21493,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R400">
         <v>8</v>
@@ -21546,7 +21546,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21593,7 +21593,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21640,7 +21640,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21687,7 +21687,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21737,7 +21737,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R405">
         <v>14</v>
@@ -21787,7 +21787,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21834,7 +21834,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21881,7 +21881,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21928,7 +21928,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21975,7 +21975,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22025,7 +22025,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R411">
         <v>13</v>
@@ -22075,7 +22075,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22122,7 +22122,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22169,7 +22169,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22216,7 +22216,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22266,7 +22266,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R416">
         <v>5</v>
@@ -22316,7 +22316,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22366,7 +22366,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R418">
         <v>13</v>
@@ -22416,7 +22416,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22463,7 +22463,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22510,7 +22510,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22557,7 +22557,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22607,7 +22607,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R423">
         <v>19</v>
@@ -22660,7 +22660,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22710,7 +22710,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R425">
         <v>9</v>
@@ -22760,7 +22760,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22810,7 +22810,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R427">
         <v>22</v>
@@ -22860,7 +22860,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22907,7 +22907,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22954,7 +22954,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23001,7 +23001,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23051,7 +23051,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R432">
         <v>16</v>
@@ -23101,7 +23101,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23148,7 +23148,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23198,7 +23198,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23248,7 +23248,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R436">
         <v>25</v>
@@ -23301,7 +23301,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23351,7 +23351,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R438">
         <v>1</v>
@@ -23401,7 +23401,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23448,7 +23448,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23592,7 +23592,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23686,7 +23686,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23733,7 +23733,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23830,7 +23830,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R448">
         <v>18</v>
@@ -23880,7 +23880,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23930,7 +23930,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R450">
         <v>12</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24030,7 +24030,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24080,7 +24080,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24130,7 +24130,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R454">
         <v>35</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24230,7 +24230,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24277,7 +24277,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24324,7 +24324,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24371,7 +24371,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24465,7 +24465,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24515,7 +24515,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24565,7 +24565,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R463">
         <v>8</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24665,7 +24665,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R465">
         <v>4</v>
@@ -24715,7 +24715,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24756,10 +24756,10 @@
         <v>1</v>
       </c>
       <c r="P467" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q467">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24800,7 +24800,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
